--- a/Safe_Growth__0_5__Underlying_Daily_with_7__Leverage__90_Days.xlsx
+++ b/Safe_Growth__0_5__Underlying_Daily_with_7__Leverage__90_Days.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8B3089-2438-4E6E-9E42-19F862FA78F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8884FD56-B172-4BF8-A9F4-4554E2047B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{94112D2E-A817-419A-9EE2-63084CB0DDE6}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +70,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,25 +87,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,13 +140,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,7 +158,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,746 +477,747 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAF124B-D0C5-4783-AEB9-A9E8CA42C6FC}">
   <dimension ref="B1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>6210</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>6427.35</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>6652.31</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>6885.14</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>7126.12</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>7375.53</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>7633.68</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>7900.85</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>8177.38</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>8463.59</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>8759.82</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>9066.41</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>9383.74</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>9712.17</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>10052.09</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>10403.92</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>10768.05</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>11144.94</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>11535.01</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>11938.73</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="7">
         <v>12356.59</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>12789.07</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>13236.69</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>13699.97</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>14179.47</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>14675.75</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>15189.4</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>15721.03</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>16271.27</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="4">
+      <c r="B32" s="6">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="7">
         <v>16840.759999999998</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="4">
         <v>17430.189999999999</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="4">
         <v>18040.25</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <v>18671.650000000001</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="4">
         <v>19325.16</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
+      <c r="B37" s="3">
         <v>35</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>20001.54</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>36</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>20701.599999999999</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>37</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="4">
         <v>21426.15</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>38</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="4">
         <v>22176.07</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>39</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="4">
         <v>22952.23</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>40</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <v>23755.56</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>41</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="4">
         <v>24587</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>42</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <v>25447.55</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>43</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="4">
         <v>26338.21</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>44</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="4">
         <v>27260.05</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="4">
+      <c r="B47" s="6">
         <v>45</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="7">
         <v>28214.15</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>46</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="4">
         <v>29201.65</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>47</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="4">
         <v>30223.7</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>48</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="4">
         <v>31281.53</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
+      <c r="B51" s="3">
         <v>49</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="4">
         <v>32376.39</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="4">
         <v>33509.56</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="4">
+      <c r="B53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="4">
         <v>34682.400000000001</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>52</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="4">
         <v>35896.28</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="4">
+      <c r="B55" s="3">
         <v>53</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="4">
         <v>37152.65</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>54</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="4">
         <v>38452.99</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="4">
+      <c r="B57" s="3">
         <v>55</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>39798.85</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="4">
+      <c r="B58" s="3">
         <v>56</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="4">
         <v>41191.81</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="4">
+      <c r="B59" s="3">
         <v>57</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="4">
         <v>42633.52</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="4">
+      <c r="B60" s="3">
         <v>58</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="4">
         <v>44125.69</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="4">
+      <c r="B61" s="3">
         <v>59</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="4">
         <v>45670.09</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="4">
+      <c r="B62" s="6">
         <v>60</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="7">
         <v>47268.55</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="4">
+      <c r="B63" s="3">
         <v>61</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="4">
         <v>48922.94</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="4">
+      <c r="B64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="4">
         <v>50635.25</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="4">
+      <c r="B65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="4">
         <v>52407.48</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="4">
+      <c r="B66" s="3">
         <v>64</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="4">
         <v>54241.74</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="4">
+      <c r="B67" s="3">
         <v>65</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="4">
         <v>56140.2</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="4">
+      <c r="B68" s="3">
         <v>66</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="4">
         <v>58105.11</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="4">
+      <c r="B69" s="3">
         <v>67</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="4">
         <v>60138.79</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="4">
+      <c r="B70" s="3">
         <v>68</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="4">
         <v>62243.65</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="4">
+      <c r="B71" s="3">
         <v>69</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="4">
         <v>64422.18</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="4">
+      <c r="B72" s="3">
         <v>70</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="4">
         <v>66676.95</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="4">
+      <c r="B73" s="3">
         <v>71</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="4">
         <v>69010.64</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="4">
+      <c r="B74" s="3">
         <v>72</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="4">
         <v>71426.02</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="4">
+      <c r="B75" s="3">
         <v>73</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="4">
         <v>73925.929999999993</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="4">
+      <c r="B76" s="3">
         <v>74</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="4">
         <v>76513.34</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="4">
+      <c r="B77" s="6">
         <v>75</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="7">
         <v>79191.3</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="4">
+      <c r="B78" s="3">
         <v>76</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="4">
         <v>81963</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="4">
+      <c r="B79" s="3">
         <v>77</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="4">
         <v>84831.7</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="4">
+      <c r="B80" s="3">
         <v>78</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="4">
         <v>87800.81</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="4">
+      <c r="B81" s="3">
         <v>79</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="4">
         <v>90873.84</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="4">
+      <c r="B82" s="3">
         <v>80</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="4">
         <v>94054.43</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="4">
+      <c r="B83" s="3">
         <v>81</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="4">
         <v>97346.33</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="4">
+      <c r="B84" s="3">
         <v>82</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>100753.45</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="4">
+      <c r="B85" s="3">
         <v>83</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="4">
         <v>104279.82</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="4">
+      <c r="B86" s="3">
         <v>84</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="4">
         <v>107929.62</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="4">
+      <c r="B87" s="3">
         <v>85</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="4">
         <v>111707.15</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="4">
+      <c r="B88" s="3">
         <v>86</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="4">
         <v>115616.9</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="4">
+      <c r="B89" s="3">
         <v>87</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="4">
         <v>119663.49</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="4">
+      <c r="B90" s="3">
         <v>88</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="4">
         <v>123851.72</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="4">
+      <c r="B91" s="3">
         <v>89</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="4">
         <v>128186.53</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="4">
+      <c r="B92" s="6">
         <v>90</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="7">
         <v>132673.06</v>
       </c>
     </row>
